--- a/biology/Botanique/Coussapoa/Coussapoa.xlsx
+++ b/biology/Botanique/Coussapoa/Coussapoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coussapoa est un genre de plantes à fleurs de la famille des Cecropiaceae (selon la classification de Cronquist), ou des Urticaceae (selon la classification APG III). 
 Ce sont des arbres et des hémiépiphytes.
-Son nom provient de Coussapoui désignant une de ces espèces en langue Galibi[1].
+Son nom provient de Coussapoui désignant une de ces espèces en langue Galibi.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Espèces valides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
 Coussapoa angustifolia Aubl.
 Coussapoa arachnoidea Akkermans &amp; C.C.Berg
 Coussapoa argentea Akkermans &amp; C.C.Berg
@@ -594,14 +608,16 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « COUSSAPOA. (Tabula 362.) 
 CAL. Cor. Stam. Pist. deſiderantur. 
 PER. Bacca ſphaerica.
 SEM. plurima, minima, pulpâ. involuta, in capitulum collecta, placentae communi affixa. »
-			Coussapoa latifolia : Planche 362 accompagnant la description du genre Coussapoa par Aublet (1775)[1]
+			Coussapoa latifolia : Planche 362 accompagnant la description du genre Coussapoa par Aublet (1775)
 			Détail des racines aériennes de Coussapoa microcarpa
 </t>
         </is>
